--- a/planos_acoes.xlsx
+++ b/planos_acoes.xlsx
@@ -14,33 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>timestamp</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>cliente</t>
   </si>
   <si>
-    <t>vendedor</t>
-  </si>
-  <si>
     <t>acao</t>
   </si>
   <si>
-    <t>prioridade</t>
-  </si>
-  <si>
-    <t>prazo</t>
-  </si>
-  <si>
-    <t>responsavel</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>observacao</t>
+    <t>Exemplo</t>
+  </si>
+  <si>
+    <t>Ligar</t>
+  </si>
+  <si>
+    <t>A Fazer</t>
   </si>
 </sst>
 </file>
@@ -398,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,23 +405,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/planos_acoes.xlsx
+++ b/planos_acoes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>cliente</t>
   </si>
@@ -25,13 +25,22 @@
     <t>status</t>
   </si>
   <si>
-    <t>Exemplo</t>
+    <t>Cliente A</t>
+  </si>
+  <si>
+    <t>Cliente B</t>
   </si>
   <si>
     <t>Ligar</t>
   </si>
   <si>
+    <t>Enviar e-mail</t>
+  </si>
+  <si>
     <t>A Fazer</t>
+  </si>
+  <si>
+    <t>Em andamento</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,10 +420,21 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
